--- a/meta/en/3-2-2.xlsx
+++ b/meta/en/3-2-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -101,9 +100,6 @@
     <t>3.2: By 2030, end preventable deaths of newborns and children under 5 years of age, with all countries aiming to reduce neonatal mortality to at least as low as 12 per 1,000 live births and under-5 mortality to at least as low as 25 per 1,000 live births</t>
   </si>
   <si>
-    <t>3.2.2: Neonatal mortality rate per 1,000 live births</t>
-  </si>
-  <si>
     <t>National Statistical Committee of the Kyrgyz Republic (Demographic Statistics Division)</t>
   </si>
   <si>
@@ -111,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jmaatkulova@stat.kg </t>
-  </si>
-  <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>The neonatal mortality rate is the probability that a child born in a specific year or period will die during the first 28 completed days of life if subject to age-specific mortality rates of that period, expressed per 1000 live births.</t>
@@ -157,18 +147,43 @@
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men», «Standard of living of the population of the Kyrgyz Republic», «Health of population and health care in the Kyrgyz Republic», available on the official website of NSC KR: http://www.stat.kg/ru/publications/
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>0 (312) 32 55 46</t>
+  </si>
+  <si>
+    <t>3.2.2: Neonatal mortality rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,25 +250,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -565,7 +588,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,8 +624,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -714,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,15 +767,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
